--- a/biology/Médecine/Incisure_scapulaire/Incisure_scapulaire.xlsx
+++ b/biology/Médecine/Incisure_scapulaire/Incisure_scapulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incisure scapulaire (ou échancrure coracoïdienne) est une encoche du bord supérieur de l'omoplate.
 </t>
@@ -511,13 +523,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incisure scapulaire est située à la base du processus coracoïde.
 Cette encoche est convertie en foramen par le ligament transverse supérieur de la scapula, qui est parfois ossifié, et sert au passage pour le nerf supra-scapulaire.
-Les vaisseaux supra-scapulaires passent dans la plupart des cas au-dessus du ligament transverse supérieur[1],[2].
-Variation
-La forme de l'incisure scapulaire est variable. Il existe deux principaux systèmes de classification :
+Les vaisseaux supra-scapulaires passent dans la plupart des cas au-dessus du ligament transverse supérieur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incisure_scapulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisure_scapulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme de l'incisure scapulaire est variable. Il existe deux principaux systèmes de classification :
 une classification basée sur l'observation de la forme de l'incisure scapulaire (introduit par Hrdicka 1942 et modifié par Rengachary et al. 1979 ;
 une classification basée sur le rapport profondeur / largeur supérieure de l'incisure scapulaire (introduit par Natsis et al. Skandalakis et modifié par Polguj et al. 2011).
 La première classification donne six types d'incisure :
@@ -533,45 +582,84 @@
 Type III : la profondeur est inférieure à la largeur ;
 Type IV : l'incisure est un foramen ;
 Type V : l'incisure est peu marquée ou absente.
-La deuxième classification donne une approche plus pratique dans le diagnostic clinique de la compression du nerf supra-scapulaire[3].
+La deuxième classification donne une approche plus pratique dans le diagnostic clinique de la compression du nerf supra-scapulaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Incisure_scapulaire</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Incisure_scapulaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compression du nerf supra-scapulaire
-L'incisure scapulaire est un site de compression potentielle du nerf supra-scapulaire[2] en cas de rétrécissement de l'espace (sténose).
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Compression du nerf supra-scapulaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'incisure scapulaire est un site de compression potentielle du nerf supra-scapulaire en cas de rétrécissement de l'espace (sténose).
 Al-Redouan et al. 2020 a démontré que le schéma morphologique de type V (selon le système de classification profondeur / largeur supérieure) avait une incidence plus forte que les autres types dans l'apparition de cette pathologie.
-Il existe types principaux de sténose supra-scapulaire[3] :
+Il existe types principaux de sténose supra-scapulaire :
 la sténose verticale (traitée chirurgicalement par section du ligament transverse supérieur) ;
-la sténose horizontale (traitée chirurgicalement en taillant les bords de l'incisure).
-Anesthésie du nerf supra-scapulaire
-L'incisure scapulaire est un bon endroit pour un bloc nerveux local du nerf supra-scapulaire.
+la sténose horizontale (traitée chirurgicalement en taillant les bords de l'incisure).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incisure_scapulaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisure_scapulaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anesthésie du nerf supra-scapulaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incisure scapulaire est un bon endroit pour un bloc nerveux local du nerf supra-scapulaire.
 </t>
         </is>
       </c>
